--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Alcam-Cd6.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Alcam-Cd6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,185 +522,991 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.443481186005837</v>
+        <v>29.77446566666667</v>
       </c>
       <c r="H2">
-        <v>0.443481186005837</v>
+        <v>89.323397</v>
       </c>
       <c r="I2">
-        <v>0.01753900339102556</v>
+        <v>0.4936227575398824</v>
       </c>
       <c r="J2">
-        <v>0.01753900339102556</v>
+        <v>0.4936227575398824</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.0510210752237198</v>
+        <v>0.03581866666666667</v>
       </c>
       <c r="N2">
-        <v>0.0510210752237198</v>
+        <v>0.107456</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.1397707081927466</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.1397707081927466</v>
       </c>
       <c r="Q2">
-        <v>0.02262688695150828</v>
+        <v>1.066481660892444</v>
       </c>
       <c r="R2">
-        <v>0.02262688695150828</v>
+        <v>9.598334948031999</v>
       </c>
       <c r="S2">
-        <v>0.01753900339102556</v>
+        <v>0.06899400240140581</v>
       </c>
       <c r="T2">
-        <v>0.01753900339102556</v>
+        <v>0.06899400240140582</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>23.9416731981234</v>
+        <v>29.77446566666667</v>
       </c>
       <c r="H3">
-        <v>23.9416731981234</v>
+        <v>89.323397</v>
       </c>
       <c r="I3">
-        <v>0.9468565987897067</v>
+        <v>0.4936227575398824</v>
       </c>
       <c r="J3">
-        <v>0.9468565987897067</v>
+        <v>0.4936227575398824</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.0510210752237198</v>
+        <v>0.036329</v>
       </c>
       <c r="N3">
-        <v>0.0510210752237198</v>
+        <v>0.108987</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.1417621182046873</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.1417621182046873</v>
       </c>
       <c r="Q3">
-        <v>1.22152990922317</v>
+        <v>1.081676563204333</v>
       </c>
       <c r="R3">
-        <v>1.22152990922317</v>
+        <v>9.735089068839001</v>
       </c>
       <c r="S3">
-        <v>0.9468565987897067</v>
+        <v>0.0699770077028925</v>
       </c>
       <c r="T3">
-        <v>0.9468565987897067</v>
+        <v>0.0699770077028925</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.9002723940399</v>
+        <v>29.77446566666667</v>
       </c>
       <c r="H4">
-        <v>0.9002723940399</v>
+        <v>89.323397</v>
       </c>
       <c r="I4">
-        <v>0.03560439781926777</v>
+        <v>0.4936227575398824</v>
       </c>
       <c r="J4">
-        <v>0.03560439781926777</v>
+        <v>0.4936227575398824</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.0510210752237198</v>
+        <v>0.072672</v>
       </c>
       <c r="N4">
-        <v>0.0510210752237198</v>
+        <v>0.218016</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.283578866860388</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.283578866860388</v>
       </c>
       <c r="Q4">
-        <v>0.04593286553814805</v>
+        <v>2.163769968928</v>
       </c>
       <c r="R4">
-        <v>0.04593286553814805</v>
+        <v>19.473929720352</v>
       </c>
       <c r="S4">
-        <v>0.03560439781926777</v>
+        <v>0.1399809822396599</v>
       </c>
       <c r="T4">
-        <v>0.03560439781926777</v>
+        <v>0.1399809822396599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>29.77446566666667</v>
+      </c>
+      <c r="H5">
+        <v>89.323397</v>
+      </c>
+      <c r="I5">
+        <v>0.4936227575398824</v>
+      </c>
+      <c r="J5">
+        <v>0.4936227575398824</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.1114476666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.334343</v>
+      </c>
+      <c r="O5">
+        <v>0.434888306742178</v>
+      </c>
+      <c r="P5">
+        <v>0.4348883067421781</v>
+      </c>
+      <c r="Q5">
+        <v>3.318294724796778</v>
+      </c>
+      <c r="R5">
+        <v>29.864652523171</v>
+      </c>
+      <c r="S5">
+        <v>0.2146707651959242</v>
+      </c>
+      <c r="T5">
+        <v>0.2146707651959242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.5058753333333333</v>
+      </c>
+      <c r="H6">
+        <v>1.517626</v>
+      </c>
+      <c r="I6">
+        <v>0.008386769381758081</v>
+      </c>
+      <c r="J6">
+        <v>0.008386769381758081</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.03581866666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.107456</v>
+      </c>
+      <c r="O6">
+        <v>0.1397707081927466</v>
+      </c>
+      <c r="P6">
+        <v>0.1397707081927466</v>
+      </c>
+      <c r="Q6">
+        <v>0.01811977993955555</v>
+      </c>
+      <c r="R6">
+        <v>0.163078019456</v>
+      </c>
+      <c r="S6">
+        <v>0.001172224695937571</v>
+      </c>
+      <c r="T6">
+        <v>0.001172224695937571</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.5058753333333333</v>
+      </c>
+      <c r="H7">
+        <v>1.517626</v>
+      </c>
+      <c r="I7">
+        <v>0.008386769381758081</v>
+      </c>
+      <c r="J7">
+        <v>0.008386769381758081</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.036329</v>
+      </c>
+      <c r="N7">
+        <v>0.108987</v>
+      </c>
+      <c r="O7">
+        <v>0.1417621182046873</v>
+      </c>
+      <c r="P7">
+        <v>0.1417621182046873</v>
+      </c>
+      <c r="Q7">
+        <v>0.01837794498466667</v>
+      </c>
+      <c r="R7">
+        <v>0.165401504862</v>
+      </c>
+      <c r="S7">
+        <v>0.001188926192452241</v>
+      </c>
+      <c r="T7">
+        <v>0.001188926192452241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.5058753333333333</v>
+      </c>
+      <c r="H8">
+        <v>1.517626</v>
+      </c>
+      <c r="I8">
+        <v>0.008386769381758081</v>
+      </c>
+      <c r="J8">
+        <v>0.008386769381758081</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.072672</v>
+      </c>
+      <c r="N8">
+        <v>0.218016</v>
+      </c>
+      <c r="O8">
+        <v>0.283578866860388</v>
+      </c>
+      <c r="P8">
+        <v>0.283578866860388</v>
+      </c>
+      <c r="Q8">
+        <v>0.036762972224</v>
+      </c>
+      <c r="R8">
+        <v>0.3308667500160001</v>
+      </c>
+      <c r="S8">
+        <v>0.002378310557898353</v>
+      </c>
+      <c r="T8">
+        <v>0.002378310557898354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.5058753333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.517626</v>
+      </c>
+      <c r="I9">
+        <v>0.008386769381758081</v>
+      </c>
+      <c r="J9">
+        <v>0.008386769381758081</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.1114476666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.334343</v>
+      </c>
+      <c r="O9">
+        <v>0.434888306742178</v>
+      </c>
+      <c r="P9">
+        <v>0.4348883067421781</v>
+      </c>
+      <c r="Q9">
+        <v>0.05637862552422222</v>
+      </c>
+      <c r="R9">
+        <v>0.507407629718</v>
+      </c>
+      <c r="S9">
+        <v>0.003647307935469915</v>
+      </c>
+      <c r="T9">
+        <v>0.003647307935469915</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>29.12203633333333</v>
+      </c>
+      <c r="H10">
+        <v>87.36610899999999</v>
+      </c>
+      <c r="I10">
+        <v>0.482806309304492</v>
+      </c>
+      <c r="J10">
+        <v>0.482806309304492</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.03581866666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.107456</v>
+      </c>
+      <c r="O10">
+        <v>0.1397707081927466</v>
+      </c>
+      <c r="P10">
+        <v>0.1397707081927466</v>
+      </c>
+      <c r="Q10">
+        <v>1.043112512078222</v>
+      </c>
+      <c r="R10">
+        <v>9.388012608703999</v>
+      </c>
+      <c r="S10">
+        <v>0.06748217977141512</v>
+      </c>
+      <c r="T10">
+        <v>0.06748217977141513</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>29.12203633333333</v>
+      </c>
+      <c r="H11">
+        <v>87.36610899999999</v>
+      </c>
+      <c r="I11">
+        <v>0.482806309304492</v>
+      </c>
+      <c r="J11">
+        <v>0.482806309304492</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.036329</v>
+      </c>
+      <c r="N11">
+        <v>0.108987</v>
+      </c>
+      <c r="O11">
+        <v>0.1417621182046873</v>
+      </c>
+      <c r="P11">
+        <v>0.1417621182046873</v>
+      </c>
+      <c r="Q11">
+        <v>1.057974457953667</v>
+      </c>
+      <c r="R11">
+        <v>9.521770121583</v>
+      </c>
+      <c r="S11">
+        <v>0.06844364508959221</v>
+      </c>
+      <c r="T11">
+        <v>0.06844364508959221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>29.12203633333333</v>
+      </c>
+      <c r="H12">
+        <v>87.36610899999999</v>
+      </c>
+      <c r="I12">
+        <v>0.482806309304492</v>
+      </c>
+      <c r="J12">
+        <v>0.482806309304492</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.072672</v>
+      </c>
+      <c r="N12">
+        <v>0.218016</v>
+      </c>
+      <c r="O12">
+        <v>0.283578866860388</v>
+      </c>
+      <c r="P12">
+        <v>0.283578866860388</v>
+      </c>
+      <c r="Q12">
+        <v>2.116356624416</v>
+      </c>
+      <c r="R12">
+        <v>19.047209619744</v>
+      </c>
+      <c r="S12">
+        <v>0.1369136661056138</v>
+      </c>
+      <c r="T12">
+        <v>0.1369136661056138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>29.12203633333333</v>
+      </c>
+      <c r="H13">
+        <v>87.36610899999999</v>
+      </c>
+      <c r="I13">
+        <v>0.482806309304492</v>
+      </c>
+      <c r="J13">
+        <v>0.482806309304492</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.1114476666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.334343</v>
+      </c>
+      <c r="O13">
+        <v>0.434888306742178</v>
+      </c>
+      <c r="P13">
+        <v>0.4348883067421781</v>
+      </c>
+      <c r="Q13">
+        <v>3.245582997931888</v>
+      </c>
+      <c r="R13">
+        <v>29.210246981387</v>
+      </c>
+      <c r="S13">
+        <v>0.2099668183378708</v>
+      </c>
+      <c r="T13">
+        <v>0.2099668183378708</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.9158823333333334</v>
+      </c>
+      <c r="H14">
+        <v>2.747647</v>
+      </c>
+      <c r="I14">
+        <v>0.0151841637738675</v>
+      </c>
+      <c r="J14">
+        <v>0.0151841637738675</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.03581866666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.107456</v>
+      </c>
+      <c r="O14">
+        <v>0.1397707081927466</v>
+      </c>
+      <c r="P14">
+        <v>0.1397707081927466</v>
+      </c>
+      <c r="Q14">
+        <v>0.03280568400355555</v>
+      </c>
+      <c r="R14">
+        <v>0.295251156032</v>
+      </c>
+      <c r="S14">
+        <v>0.002122301323988109</v>
+      </c>
+      <c r="T14">
+        <v>0.002122301323988109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.9158823333333334</v>
+      </c>
+      <c r="H15">
+        <v>2.747647</v>
+      </c>
+      <c r="I15">
+        <v>0.0151841637738675</v>
+      </c>
+      <c r="J15">
+        <v>0.0151841637738675</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.036329</v>
+      </c>
+      <c r="N15">
+        <v>0.108987</v>
+      </c>
+      <c r="O15">
+        <v>0.1417621182046873</v>
+      </c>
+      <c r="P15">
+        <v>0.1417621182046873</v>
+      </c>
+      <c r="Q15">
+        <v>0.03327308928766667</v>
+      </c>
+      <c r="R15">
+        <v>0.299457803589</v>
+      </c>
+      <c r="S15">
+        <v>0.002152539219750335</v>
+      </c>
+      <c r="T15">
+        <v>0.002152539219750336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.9158823333333334</v>
+      </c>
+      <c r="H16">
+        <v>2.747647</v>
+      </c>
+      <c r="I16">
+        <v>0.0151841637738675</v>
+      </c>
+      <c r="J16">
+        <v>0.0151841637738675</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.072672</v>
+      </c>
+      <c r="N16">
+        <v>0.218016</v>
+      </c>
+      <c r="O16">
+        <v>0.283578866860388</v>
+      </c>
+      <c r="P16">
+        <v>0.283578866860388</v>
+      </c>
+      <c r="Q16">
+        <v>0.066559000928</v>
+      </c>
+      <c r="R16">
+        <v>0.5990310083520001</v>
+      </c>
+      <c r="S16">
+        <v>0.004305907957215898</v>
+      </c>
+      <c r="T16">
+        <v>0.0043059079572159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.9158823333333334</v>
+      </c>
+      <c r="H17">
+        <v>2.747647</v>
+      </c>
+      <c r="I17">
+        <v>0.0151841637738675</v>
+      </c>
+      <c r="J17">
+        <v>0.0151841637738675</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.1114476666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.334343</v>
+      </c>
+      <c r="O17">
+        <v>0.434888306742178</v>
+      </c>
+      <c r="P17">
+        <v>0.4348883067421781</v>
+      </c>
+      <c r="Q17">
+        <v>0.1020729489912222</v>
+      </c>
+      <c r="R17">
+        <v>0.918656540921</v>
+      </c>
+      <c r="S17">
+        <v>0.006603415272913158</v>
+      </c>
+      <c r="T17">
+        <v>0.00660341527291316</v>
       </c>
     </row>
   </sheetData>
